--- a/Datos Metabolismo.xlsx
+++ b/Datos Metabolismo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/148fb6f5731d13db/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{620ABA35-2BB0-4A2A-9B05-7E005E01233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{620ABA35-2BB0-4A2A-9B05-7E005E01233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{165C15CC-FFDE-4BDA-A62F-2EF2A4404B2D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{30FD8292-AC1F-4DA0-AAF0-C13AC8F4F30C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="18">
   <si>
     <t>Especie</t>
   </si>
@@ -64,25 +64,13 @@
     <t xml:space="preserve">Tiempo </t>
   </si>
   <si>
-    <t xml:space="preserve">scurria zebrina </t>
-  </si>
-  <si>
     <t>Talcaruca</t>
   </si>
   <si>
     <t>Scurria zebrina</t>
   </si>
   <si>
-    <t xml:space="preserve">scurria viridula </t>
-  </si>
-  <si>
     <t>Los Molles</t>
-  </si>
-  <si>
-    <t>scurria zebrina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scuria viridula </t>
   </si>
   <si>
     <t>Scurria viridula</t>
@@ -94,21 +82,19 @@
     <t xml:space="preserve">Scurria zebrina </t>
   </si>
   <si>
-    <t>Scuria zebrina</t>
-  </si>
-  <si>
     <t xml:space="preserve"> mgO2_h_1_g_1</t>
   </si>
   <si>
-    <t>ml/g_h 14°C</t>
+    <t>ml_g_h 14C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -119,9 +105,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,13 +132,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD113961-FD57-41B3-99D3-497C602BEDBD}">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,18 +499,18 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>63</v>
@@ -561,10 +547,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>66</v>
@@ -601,10 +587,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>67</v>
@@ -641,10 +627,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -681,10 +667,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>55</v>
@@ -721,10 +707,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>26</v>
@@ -761,10 +747,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>68</v>
@@ -801,10 +787,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -841,10 +827,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>69</v>
@@ -881,10 +867,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>74</v>
@@ -921,10 +907,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>75</v>
@@ -961,10 +947,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>98</v>
@@ -1001,10 +987,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1031,7 +1017,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="K14">
-        <f>I14*0.1314*60</f>
+        <f t="shared" ref="K14:K27" si="4">I14*0.1314*60</f>
         <v>9.1454399999999991E-2</v>
       </c>
       <c r="L14">
@@ -1041,10 +1027,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -1071,20 +1057,20 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="K15">
-        <f>I15*0.1314*60</f>
+        <f t="shared" si="4"/>
         <v>0.12772079999999997</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:L18" si="4">K15/H15</f>
+        <f t="shared" ref="L15:L18" si="5">K15/H15</f>
         <v>0.11818339964837603</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>13</v>
@@ -1111,20 +1097,20 @@
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="K16">
-        <f>I16*0.1314*60</f>
+        <f t="shared" si="4"/>
         <v>0.23415479999999997</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.74785946981794948</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>82</v>
@@ -1151,20 +1137,20 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="K17">
-        <f>I17*0.1314*60</f>
+        <f t="shared" si="4"/>
         <v>0.2909196</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17599491833030853</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>85</v>
@@ -1191,20 +1177,20 @@
         <v>1.4236111111111111E-2</v>
       </c>
       <c r="K18">
-        <f>I18*0.1314*60</f>
+        <f t="shared" si="4"/>
         <v>0.1726596</v>
       </c>
       <c r="L18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.55428443017656503</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>28</v>
@@ -1231,7 +1217,7 @@
         <v>1.4236111111111111E-2</v>
       </c>
       <c r="K19">
-        <f>I19*0.1314*60</f>
+        <f t="shared" si="4"/>
         <v>0.36739439999999995</v>
       </c>
       <c r="L19">
@@ -1241,10 +1227,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>27</v>
@@ -1271,20 +1257,20 @@
         <v>1.1979166666666666E-2</v>
       </c>
       <c r="K20">
-        <f>I20*0.1314*60</f>
+        <f t="shared" si="4"/>
         <v>0.15058439999999998</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:L22" si="5">K20/H20</f>
+        <f t="shared" ref="L20:L22" si="6">K20/H20</f>
         <v>0.12211856297137294</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>30</v>
@@ -1311,20 +1297,20 @@
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="K21">
-        <f>I21*0.1314*60</f>
+        <f t="shared" si="4"/>
         <v>0.15689160000000002</v>
       </c>
       <c r="L21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10708593270083955</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>34</v>
@@ -1351,20 +1337,20 @@
         <v>1.1284722222222222E-2</v>
       </c>
       <c r="K22">
-        <f>I22*0.1314*60</f>
+        <f t="shared" si="4"/>
         <v>0.15689160000000002</v>
       </c>
       <c r="L22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.43304333425338121</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1391,7 +1377,7 @@
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="K23">
-        <f>I23*0.1314*60</f>
+        <f t="shared" si="4"/>
         <v>0.10170359999999999</v>
       </c>
       <c r="L23">
@@ -1401,10 +1387,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1431,20 +1417,20 @@
         <v>1.1979166666666666E-2</v>
       </c>
       <c r="K24">
-        <f>I24*0.1314*60</f>
+        <f t="shared" si="4"/>
         <v>0.15137279999999997</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:L27" si="6">K24/H24</f>
+        <f t="shared" ref="L24:L27" si="7">K24/H24</f>
         <v>0.31236648782501025</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -1471,20 +1457,20 @@
         <v>1.1631944444444445E-2</v>
       </c>
       <c r="K25">
-        <f>I25*0.1314*60</f>
+        <f t="shared" si="4"/>
         <v>0.16477559999999997</v>
       </c>
       <c r="L25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19557934718100886</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>86</v>
@@ -1511,20 +1497,20 @@
         <v>1.1631944444444403E-2</v>
       </c>
       <c r="K26">
-        <f>I26*0.1314*60</f>
+        <f t="shared" si="4"/>
         <v>0.22075199999999998</v>
       </c>
       <c r="L26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.42096109839816931</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>89</v>
@@ -1551,20 +1537,20 @@
         <v>1.8229166666666657E-2</v>
       </c>
       <c r="K27">
-        <f>I27*0.1314*60</f>
+        <f t="shared" si="4"/>
         <v>0.14033519999999999</v>
       </c>
       <c r="L27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.39575634517766495</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>19</v>
@@ -1591,7 +1577,7 @@
         <v>1.3541666666666667E-2</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28:K33" si="7">I28*0.1314*60</f>
+        <f t="shared" ref="K28:K33" si="8">I28*0.1314*60</f>
         <v>0.14112359999999996</v>
       </c>
       <c r="L28">
@@ -1601,10 +1587,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>21</v>
@@ -1631,20 +1617,20 @@
         <v>1.909722222222222E-2</v>
       </c>
       <c r="K29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1356048</v>
       </c>
       <c r="L29">
-        <f t="shared" ref="L29:L33" si="8">K29/H29</f>
+        <f t="shared" ref="L29:L33" si="9">K29/H29</f>
         <v>0.69683864337101753</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>22</v>
@@ -1671,20 +1657,20 @@
         <v>1.6493055555555556E-2</v>
       </c>
       <c r="K30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.22627079999999999</v>
       </c>
       <c r="L30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.6301930835734868</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>25</v>
@@ -1711,20 +1697,20 @@
         <v>1.2152777777777778E-2</v>
       </c>
       <c r="K31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.19394639999999996</v>
       </c>
       <c r="L31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.92797320574162667</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>52</v>
@@ -1751,20 +1737,20 @@
         <v>1.4409722222222221E-2</v>
       </c>
       <c r="K32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.20340719999999998</v>
       </c>
       <c r="L32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13528012769353551</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>57</v>
@@ -1791,22 +1777,22 @@
         <v>1.8576388888888889E-2</v>
       </c>
       <c r="K33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11195279999999999</v>
       </c>
       <c r="L33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.60189677419354837</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="3">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2">
         <v>351</v>
       </c>
       <c r="D34">
@@ -1831,7 +1817,7 @@
         <v>1.4236111111111116E-2</v>
       </c>
       <c r="K34">
-        <f>I34*0.1314*60</f>
+        <f t="shared" ref="K34:K76" si="10">I34*0.1314*60</f>
         <v>0.16635240000000001</v>
       </c>
       <c r="L34">
@@ -1841,10 +1827,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>48</v>
@@ -1871,20 +1857,19 @@
         <v>1.0590277777777879E-2</v>
       </c>
       <c r="K35">
-        <f>I35*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.15452639999999998</v>
       </c>
-      <c r="L35" s="2">
-        <f>AVERAGE(L34:L34)</f>
-        <v>0.21278766180115669</v>
+      <c r="L35">
+        <v>0.21278766199999999</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>18</v>
@@ -1911,7 +1896,7 @@
         <v>1.3020833333333315E-2</v>
       </c>
       <c r="K36">
-        <f>I36*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>8.1993599999999986E-2</v>
       </c>
       <c r="L36">
@@ -1921,10 +1906,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>57</v>
@@ -1951,7 +1936,7 @@
         <v>1.0937499999999933E-2</v>
       </c>
       <c r="K37">
-        <f>I37*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.22311719999999999</v>
       </c>
       <c r="L37">
@@ -1961,10 +1946,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
         <v>12</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
       </c>
       <c r="C38">
         <v>46</v>
@@ -1991,7 +1976,7 @@
         <v>1.0937500000000017E-2</v>
       </c>
       <c r="K38">
-        <f>I38*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.10564559999999999</v>
       </c>
       <c r="L38">
@@ -2001,10 +1986,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
         <v>12</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
       </c>
       <c r="C39">
         <v>52</v>
@@ -2031,20 +2016,19 @@
         <v>1.8750000000000044E-2</v>
       </c>
       <c r="K39">
-        <f>I39*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.12377879999999999</v>
       </c>
-      <c r="L39" s="2">
-        <f>AVERAGE(L36:L37)</f>
-        <v>0.48989676960157674</v>
+      <c r="L39">
+        <v>0.48989676999999998</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>60</v>
@@ -2071,7 +2055,7 @@
         <v>1.1979166666666652E-2</v>
       </c>
       <c r="K40">
-        <f>I40*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.25228800000000001</v>
       </c>
       <c r="L40">
@@ -2081,10 +2065,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C41">
         <v>35</v>
@@ -2111,7 +2095,7 @@
         <v>1.0763888888888795E-2</v>
       </c>
       <c r="K41">
-        <f>I41*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.16635240000000001</v>
       </c>
       <c r="L41">
@@ -2121,10 +2105,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C42">
         <v>57</v>
@@ -2151,7 +2135,7 @@
         <v>1.5798611111111083E-2</v>
       </c>
       <c r="K42">
-        <f>I42*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.35872199999999993</v>
       </c>
       <c r="L42">
@@ -2161,10 +2145,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
         <v>12</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
       </c>
       <c r="C43">
         <v>38</v>
@@ -2191,140 +2175,139 @@
         <v>1.9618055555555625E-2</v>
       </c>
       <c r="K43">
-        <f>I43*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.193158</v>
       </c>
       <c r="L43">
+        <v>0.29859019939999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>39</v>
+      </c>
+      <c r="D44">
+        <v>800</v>
+      </c>
+      <c r="E44">
+        <v>15</v>
+      </c>
+      <c r="F44">
+        <v>25.49</v>
+      </c>
+      <c r="G44">
+        <v>22.44</v>
+      </c>
+      <c r="H44">
+        <v>1.0091000000000001</v>
+      </c>
+      <c r="I44">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1.7013888888888884E-2</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="10"/>
+        <v>0.12535559999999998</v>
+      </c>
+      <c r="L44">
         <f>K44/H44</f>
         <v>0.12422515112476461</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
         <v>12</v>
       </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44">
-        <v>39</v>
-      </c>
-      <c r="D44">
+      <c r="C45">
+        <v>64</v>
+      </c>
+      <c r="D45">
         <v>800</v>
       </c>
-      <c r="E44">
-        <v>15</v>
-      </c>
-      <c r="F44">
-        <v>25.49</v>
-      </c>
-      <c r="G44">
-        <v>22.44</v>
-      </c>
-      <c r="H44">
-        <v>1.0091000000000001</v>
-      </c>
-      <c r="I44">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="J44" s="1">
-        <v>1.7013888888888884E-2</v>
-      </c>
-      <c r="K44">
-        <f>I44*0.1314*60</f>
-        <v>0.12535559999999998</v>
-      </c>
-      <c r="L44">
+      <c r="E45">
+        <v>15</v>
+      </c>
+      <c r="F45">
+        <v>29.54</v>
+      </c>
+      <c r="G45">
+        <v>25.01</v>
+      </c>
+      <c r="H45">
+        <v>1.3945000000000001</v>
+      </c>
+      <c r="I45">
+        <v>0.02</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1.0416666666666657E-2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="10"/>
+        <v>0.15767999999999999</v>
+      </c>
+      <c r="L45">
         <f>K45/H45</f>
         <v>0.11307278594478307</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
         <v>12</v>
       </c>
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45">
-        <v>64</v>
-      </c>
-      <c r="D45">
+      <c r="C46">
+        <v>56</v>
+      </c>
+      <c r="D46">
         <v>800</v>
       </c>
-      <c r="E45">
-        <v>15</v>
-      </c>
-      <c r="F45">
-        <v>29.54</v>
-      </c>
-      <c r="G45">
-        <v>25.01</v>
-      </c>
-      <c r="H45">
-        <v>1.3945000000000001</v>
-      </c>
-      <c r="I45">
-        <v>0.02</v>
-      </c>
-      <c r="J45" s="1">
-        <v>1.0416666666666657E-2</v>
-      </c>
-      <c r="K45">
-        <f>I45*0.1314*60</f>
-        <v>0.15767999999999999</v>
-      </c>
-      <c r="L45">
+      <c r="E46">
+        <v>15</v>
+      </c>
+      <c r="F46">
+        <v>18.84</v>
+      </c>
+      <c r="G46">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="H46">
+        <v>0.30280000000000001</v>
+      </c>
+      <c r="I46">
+        <v>1.04E-2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1.4409722222222199E-2</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="10"/>
+        <v>8.1993599999999986E-2</v>
+      </c>
+      <c r="L46">
         <f>K46/H46</f>
         <v>0.27078467635402903</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46">
-        <v>56</v>
-      </c>
-      <c r="D46">
-        <v>800</v>
-      </c>
-      <c r="E46">
-        <v>15</v>
-      </c>
-      <c r="F46">
-        <v>18.84</v>
-      </c>
-      <c r="G46">
-        <v>16.760000000000002</v>
-      </c>
-      <c r="H46">
-        <v>0.30280000000000001</v>
-      </c>
-      <c r="I46">
-        <v>1.04E-2</v>
-      </c>
-      <c r="J46" s="1">
-        <v>1.4409722222222199E-2</v>
-      </c>
-      <c r="K46">
-        <f>I46*0.1314*60</f>
-        <v>8.1993599999999986E-2</v>
-      </c>
-      <c r="L46" s="2">
-        <f>AVERAGE(L43:L45)</f>
-        <v>0.16936087114119225</v>
-      </c>
-    </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C47">
         <v>26</v>
@@ -2351,7 +2334,7 @@
         <v>1.2152777777777679E-2</v>
       </c>
       <c r="K47">
-        <f>I47*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.18133199999999997</v>
       </c>
       <c r="L47">
@@ -2361,10 +2344,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>69</v>
@@ -2391,20 +2374,20 @@
         <v>1.0590277777777777E-2</v>
       </c>
       <c r="K48">
-        <f>I48*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.17187119999999997</v>
       </c>
       <c r="L48">
-        <f t="shared" ref="L48:L49" si="9">K48/H48</f>
+        <f t="shared" ref="L48:L49" si="11">K48/H48</f>
         <v>0.1638428979980934</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C49">
         <v>24</v>
@@ -2431,20 +2414,20 @@
         <v>1.7187499999999998E-2</v>
       </c>
       <c r="K49">
-        <f>I49*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>8.1993599999999986E-2</v>
       </c>
       <c r="L49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.1846276701936505E-2</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
         <v>12</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
       </c>
       <c r="C50">
         <v>69</v>
@@ -2471,7 +2454,7 @@
         <v>1.1631944444444486E-2</v>
       </c>
       <c r="K50">
-        <f>I50*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.13718159999999999</v>
       </c>
       <c r="L50">
@@ -2481,10 +2464,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
         <v>12</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
       </c>
       <c r="C51">
         <v>48</v>
@@ -2511,7 +2494,7 @@
         <v>1.0937500000000017E-2</v>
       </c>
       <c r="K51">
-        <f>I51*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.18448559999999997</v>
       </c>
       <c r="L51">
@@ -2521,10 +2504,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
         <v>12</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
       </c>
       <c r="C52">
         <v>47</v>
@@ -2551,7 +2534,7 @@
         <v>1.7881944444444464E-2</v>
       </c>
       <c r="K52">
-        <f>I52*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.1797552</v>
       </c>
       <c r="L52">
@@ -2561,10 +2544,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
         <v>12</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
       </c>
       <c r="C53">
         <v>49</v>
@@ -2591,7 +2574,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
       <c r="K53">
-        <f>I53*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.1482192</v>
       </c>
       <c r="L53">
@@ -2601,10 +2584,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
         <v>12</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
       </c>
       <c r="C54">
         <v>63</v>
@@ -2631,20 +2614,19 @@
         <v>1.9953703703703696E-2</v>
       </c>
       <c r="K54">
-        <f>I54*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.16477559999999997</v>
       </c>
-      <c r="L54" s="2">
-        <f>AVERAGE(L50:L53)</f>
-        <v>0.22362092180287246</v>
+      <c r="L54" s="3">
+        <v>1.3066583309999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55">
         <v>82</v>
@@ -2671,7 +2653,7 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="K55">
-        <f>I55*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.24440399999999998</v>
       </c>
       <c r="L55">
@@ -2681,10 +2663,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2711,20 +2693,20 @@
         <v>1.3541666666666619E-2</v>
       </c>
       <c r="K56">
-        <f>I56*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.22390559999999998</v>
       </c>
       <c r="L56">
-        <f t="shared" ref="L56:L57" si="10">K56/H56</f>
+        <f t="shared" ref="L56:L57" si="12">K56/H56</f>
         <v>0.32230545559234203</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C57">
         <v>13</v>
@@ -2751,20 +2733,20 @@
         <v>1.9965277777777735E-2</v>
       </c>
       <c r="K57">
-        <f>I57*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.23809680000000003</v>
       </c>
       <c r="L57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.76288625440563929</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C58">
         <v>25</v>
@@ -2791,7 +2773,7 @@
         <v>1.0937499999999989E-2</v>
       </c>
       <c r="K58">
-        <f>I58*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.67408200000000007</v>
       </c>
       <c r="L58">
@@ -2801,10 +2783,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59">
         <v>21</v>
@@ -2831,7 +2813,7 @@
         <v>1.6840277777777777E-2</v>
       </c>
       <c r="K59">
-        <f>I59*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.36502919999999994</v>
       </c>
       <c r="L59">
@@ -2841,10 +2823,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C60">
         <v>52</v>
@@ -2871,7 +2853,7 @@
         <v>1.1979166666666666E-2</v>
       </c>
       <c r="K60">
-        <f>I60*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.12220199999999999</v>
       </c>
       <c r="L60">
@@ -2881,10 +2863,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -2911,7 +2893,7 @@
         <v>1.8229166666666657E-2</v>
       </c>
       <c r="K61">
-        <f>I61*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.13087439999999997</v>
       </c>
       <c r="L61">
@@ -2921,10 +2903,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62">
         <v>89</v>
@@ -2951,20 +2933,20 @@
         <v>1.7534722222222229E-2</v>
       </c>
       <c r="K62">
-        <f>I62*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.14033519999999999</v>
       </c>
       <c r="L62">
-        <f t="shared" ref="L62:L63" si="11">K62/H62</f>
+        <f t="shared" ref="L62:L63" si="13">K62/H62</f>
         <v>0.74212162876784771</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63">
         <v>8</v>
@@ -2991,20 +2973,20 @@
         <v>1.1631944444444452E-2</v>
       </c>
       <c r="K63">
-        <f>I63*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.15058439999999998</v>
       </c>
       <c r="L63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.1801248803827751</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C64">
         <v>57</v>
@@ -3031,7 +3013,7 @@
         <v>1.197916666666668E-2</v>
       </c>
       <c r="K64">
-        <f>I64*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.26332559999999994</v>
       </c>
       <c r="L64">
@@ -3041,10 +3023,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65">
         <v>63</v>
@@ -3071,7 +3053,7 @@
         <v>1.7881944444444464E-2</v>
       </c>
       <c r="K65">
-        <f>I65*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.12772079999999997</v>
       </c>
       <c r="L65">
@@ -3081,10 +3063,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C66">
         <v>98</v>
@@ -3111,7 +3093,7 @@
         <v>1.1631944444444452E-2</v>
       </c>
       <c r="K66">
-        <f>I66*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.29959199999999997</v>
       </c>
       <c r="L66">
@@ -3121,10 +3103,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C67">
         <v>54</v>
@@ -3151,20 +3133,20 @@
         <v>1.1284722222222222E-2</v>
       </c>
       <c r="K67">
-        <f>I67*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.14506559999999999</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L68" si="12">K67/H67</f>
+        <f t="shared" ref="L67:L68" si="14">K67/H67</f>
         <v>0.32058696132596681</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C68">
         <v>69</v>
@@ -3191,20 +3173,20 @@
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="K68">
-        <f>I68*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.67408200000000007</v>
       </c>
       <c r="L68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.63448983433734951</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69">
         <v>26</v>
@@ -3231,7 +3213,7 @@
         <v>1.0416666666666671E-2</v>
       </c>
       <c r="K69">
-        <f>I69*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.17738999999999996</v>
       </c>
       <c r="L69">
@@ -3241,10 +3223,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70">
         <v>34</v>
@@ -3271,7 +3253,7 @@
         <v>2.2395833333333334E-2</v>
       </c>
       <c r="K70">
-        <f>I70*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.48013559999999994</v>
       </c>
       <c r="L70">
@@ -3281,10 +3263,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71">
         <v>67</v>
@@ -3311,20 +3293,20 @@
         <v>1.0590277777777777E-2</v>
       </c>
       <c r="K71">
-        <f>I71*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.14979599999999998</v>
       </c>
       <c r="L71">
-        <f t="shared" ref="L71:L73" si="13">K71/H71</f>
+        <f t="shared" ref="L71:L73" si="15">K71/H71</f>
         <v>0.91450549450549445</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72">
         <v>66</v>
@@ -3351,20 +3333,20 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="K72">
-        <f>I72*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.22390559999999998</v>
       </c>
       <c r="L72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.57118775510204078</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C73">
         <v>55</v>
@@ -3391,20 +3373,20 @@
         <v>1.0763888888888851E-2</v>
       </c>
       <c r="K73">
-        <f>I73*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>9.776159999999999E-2</v>
       </c>
       <c r="L73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26443494725453071</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C74">
         <v>35</v>
@@ -3431,7 +3413,7 @@
         <v>1.4236111111111116E-2</v>
       </c>
       <c r="K74">
-        <f>I74*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.16635240000000001</v>
       </c>
       <c r="L74">
@@ -3441,10 +3423,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C75">
         <v>57</v>
@@ -3471,20 +3453,20 @@
         <v>1.5798611111111083E-2</v>
       </c>
       <c r="K75">
-        <f>I75*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.19473479999999999</v>
       </c>
       <c r="L75">
-        <f t="shared" ref="L75:L76" si="14">K75/H75</f>
+        <f t="shared" ref="L75:L76" si="16">K75/H75</f>
         <v>0.18535579668760707</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C76">
         <v>69</v>
@@ -3511,20 +3493,20 @@
         <v>1.475694444444442E-2</v>
       </c>
       <c r="K76">
-        <f>I76*0.1314*60</f>
+        <f t="shared" si="10"/>
         <v>0.26017200000000001</v>
       </c>
       <c r="L76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.24939800613496937</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C77">
         <v>24</v>
@@ -3551,7 +3533,7 @@
         <v>1.7175925925925928E-2</v>
       </c>
       <c r="K77">
-        <f t="shared" ref="K77:K79" si="15">I77*0.1314*60</f>
+        <f t="shared" ref="K77:K79" si="17">I77*0.1314*60</f>
         <v>0.1726596</v>
       </c>
       <c r="L77">
@@ -3561,10 +3543,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C78">
         <v>39</v>
@@ -3591,20 +3573,20 @@
         <v>1.5625E-2</v>
       </c>
       <c r="K78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.1797552</v>
       </c>
       <c r="L78">
-        <f t="shared" ref="L78:L79" si="16">K78/H78</f>
+        <f t="shared" ref="L78:L79" si="18">K78/H78</f>
         <v>0.17797544554455447</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C79">
         <v>60</v>
@@ -3631,20 +3613,20 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="K79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.16477559999999997</v>
       </c>
       <c r="L79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.14034204922919682</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C80">
         <v>48</v>
@@ -3671,7 +3653,7 @@
         <v>1.0590277777777879E-2</v>
       </c>
       <c r="K80">
-        <f>I80*0.1314*60</f>
+        <f t="shared" ref="K80:K103" si="19">I80*0.1314*60</f>
         <v>0.22311719999999999</v>
       </c>
       <c r="L80">
@@ -3681,10 +3663,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C81">
         <v>24</v>
@@ -3711,7 +3693,7 @@
         <v>1.1631944444444486E-2</v>
       </c>
       <c r="K81">
-        <f>I81*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.23021279999999997</v>
       </c>
       <c r="L81">
@@ -3721,10 +3703,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C82">
         <v>351</v>
@@ -3751,7 +3733,7 @@
         <v>2.3090277777777835E-2</v>
       </c>
       <c r="K82">
-        <f>I82*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.15767999999999999</v>
       </c>
       <c r="L82">
@@ -3761,10 +3743,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C83">
         <v>26</v>
@@ -3791,20 +3773,19 @@
         <v>1.8576388888888906E-2</v>
       </c>
       <c r="K83">
-        <f>I83*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.12614400000000001</v>
       </c>
-      <c r="L83" s="2">
-        <f>AVERAGE(L80:L82)</f>
-        <v>0.16810609494797768</v>
+      <c r="L83" s="4">
+        <v>1.9536019540000001E-2</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C84">
         <v>63</v>
@@ -3831,7 +3812,7 @@
         <v>1.0590277777777768E-2</v>
       </c>
       <c r="K84">
-        <f>I84*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.15058439999999998</v>
       </c>
       <c r="L84">
@@ -3841,10 +3822,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C85">
         <v>49</v>
@@ -3871,20 +3852,20 @@
         <v>1.2673611111111205E-2</v>
       </c>
       <c r="K85">
-        <f>I85*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.15452639999999998</v>
       </c>
       <c r="L85">
-        <f t="shared" ref="L85:L87" si="17">K85/H85</f>
+        <f t="shared" ref="L85:L87" si="20">K85/H85</f>
         <v>0.207864406779661</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C86">
         <v>46</v>
@@ -3911,20 +3892,20 @@
         <v>1.059027777777774E-2</v>
       </c>
       <c r="K86">
-        <f>I86*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.12535559999999998</v>
       </c>
       <c r="L86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7.9168624478969302E-2</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C87">
         <v>69</v>
@@ -3951,20 +3932,20 @@
         <v>1.1087962962962994E-2</v>
       </c>
       <c r="K87">
-        <f>I87*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.22311719999999999</v>
       </c>
       <c r="L87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.29804595244456317</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C88">
         <v>60</v>
@@ -3991,7 +3972,7 @@
         <v>1.2326388888888901E-2</v>
       </c>
       <c r="K88">
-        <f>I88*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.1387584</v>
       </c>
       <c r="L88">
@@ -4001,10 +3982,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C89">
         <v>46</v>
@@ -4031,20 +4012,20 @@
         <v>1.1805555555555514E-2</v>
       </c>
       <c r="K89">
-        <f>I89*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.10564559999999999</v>
       </c>
       <c r="L89">
-        <f t="shared" ref="L89:L90" si="18">K89/H89</f>
+        <f t="shared" ref="L89:L90" si="21">K89/H89</f>
         <v>0.10370629233336605</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C90">
         <v>48</v>
@@ -4071,20 +4052,20 @@
         <v>1.075231481481484E-2</v>
       </c>
       <c r="K90">
-        <f>I90*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.26647919999999997</v>
       </c>
       <c r="L90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.36579162663006171</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C91">
         <v>57</v>
@@ -4111,7 +4092,7 @@
         <v>1.8576388888888889E-2</v>
       </c>
       <c r="K91">
-        <f>I91*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.11195279999999999</v>
       </c>
       <c r="L91">
@@ -4121,10 +4102,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C92">
         <v>36</v>
@@ -4151,20 +4132,20 @@
         <v>1.2673611111111109E-2</v>
       </c>
       <c r="K92">
-        <f>I92*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.1387584</v>
       </c>
       <c r="L92">
-        <f t="shared" ref="L92:L93" si="19">K92/H92</f>
+        <f t="shared" ref="L92:L93" si="22">K92/H92</f>
         <v>0.21796795475966069</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -4191,20 +4172,20 @@
         <v>2.0659722222222222E-2</v>
       </c>
       <c r="K93">
-        <f>I93*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.17738999999999996</v>
       </c>
       <c r="L93">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.24350034317089905</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C94">
         <v>67</v>
@@ -4231,7 +4212,7 @@
         <v>2.0659722222222222E-2</v>
       </c>
       <c r="K94">
-        <f>I94*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.1356048</v>
       </c>
       <c r="L94">
@@ -4241,10 +4222,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C95">
         <v>55</v>
@@ -4271,20 +4252,20 @@
         <v>1.6493055555555556E-2</v>
       </c>
       <c r="K95">
-        <f>I95*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.23967359999999996</v>
       </c>
       <c r="L95">
-        <f t="shared" ref="L95:L96" si="20">K95/H95</f>
+        <f t="shared" ref="L95:L96" si="23">K95/H95</f>
         <v>0.32016243654822329</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96">
         <v>26</v>
@@ -4311,20 +4292,20 @@
         <v>1.4409722222222221E-2</v>
       </c>
       <c r="K96">
-        <f>I96*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.1009152</v>
       </c>
       <c r="L96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.32860696841419734</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C97">
         <v>66</v>
@@ -4351,20 +4332,20 @@
         <v>1.5972222222222224E-2</v>
       </c>
       <c r="K97">
-        <f>I97*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.14191199999999998</v>
       </c>
       <c r="L97">
-        <f>K97/H97</f>
+        <f t="shared" ref="L97:L103" si="24">K97/H97</f>
         <v>0.35728096676737153</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C98">
         <v>25</v>
@@ -4391,20 +4372,20 @@
         <v>1.6319444444444445E-2</v>
       </c>
       <c r="K98">
-        <f>I98*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.193158</v>
       </c>
       <c r="L98">
-        <f>K98/H98</f>
+        <f t="shared" si="24"/>
         <v>0.93267986479961362</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4431,20 +4412,20 @@
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="K99">
-        <f>I99*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.21207959999999998</v>
       </c>
       <c r="L99">
-        <f>K99/H99</f>
+        <f t="shared" si="24"/>
         <v>0.31639504699388332</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C100">
         <v>13</v>
@@ -4471,20 +4452,20 @@
         <v>1.7534722222222222E-2</v>
       </c>
       <c r="K100">
-        <f>I100*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.14033519999999999</v>
       </c>
       <c r="L100">
-        <f>K100/H100</f>
+        <f t="shared" si="24"/>
         <v>0.17134945054945055</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C101">
         <v>26</v>
@@ -4511,20 +4492,20 @@
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="K101">
-        <f>I101*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.1009152</v>
       </c>
       <c r="L101">
-        <f>K101/H101</f>
+        <f t="shared" si="24"/>
         <v>0.32860696841419734</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C102">
         <v>69</v>
@@ -4551,20 +4532,20 @@
         <v>1.6145833333333415E-2</v>
       </c>
       <c r="K102">
-        <f>I102*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.19631159999999998</v>
       </c>
       <c r="L102">
-        <f>K102/H102</f>
+        <f t="shared" si="24"/>
         <v>0.70438320775026897</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C103">
         <v>13</v>
@@ -4591,20 +4572,20 @@
         <v>1.7534722222222222E-2</v>
       </c>
       <c r="K103">
-        <f>I103*0.1314*60</f>
+        <f t="shared" si="19"/>
         <v>0.14033519999999999</v>
       </c>
       <c r="L103">
-        <f>K103/H103</f>
+        <f t="shared" si="24"/>
         <v>0.17134945054945055</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -4631,7 +4612,7 @@
         <v>2.0659722222222222E-2</v>
       </c>
       <c r="K104">
-        <f t="shared" ref="K104" si="21">I104*0.1314*60</f>
+        <f t="shared" ref="K104" si="25">I104*0.1314*60</f>
         <v>0.17738999999999996</v>
       </c>
       <c r="L104">
@@ -4640,10 +4621,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C105">
         <v>55</v>
@@ -4680,10 +4661,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C106">
         <v>25</v>
@@ -4710,7 +4691,7 @@
         <v>2.0659722222222222E-2</v>
       </c>
       <c r="K106">
-        <f t="shared" ref="K106:K107" si="22">I106*0.1314*60</f>
+        <f t="shared" ref="K106:K107" si="26">I106*0.1314*60</f>
         <v>0.193158</v>
       </c>
       <c r="L106">
@@ -4720,10 +4701,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C107">
         <v>57</v>
@@ -4750,7 +4731,7 @@
         <v>1.5972222222222224E-2</v>
       </c>
       <c r="K107">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.1356048</v>
       </c>
       <c r="L107">
@@ -4760,10 +4741,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
         <v>12</v>
-      </c>
-      <c r="B108" t="s">
-        <v>14</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4800,10 +4781,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C109">
         <v>57</v>
@@ -4840,10 +4821,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C110">
         <v>39</v>
@@ -4880,10 +4861,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C111">
         <v>66</v>
@@ -4913,12 +4894,12 @@
         <f>I111*0.1314*60</f>
         <v>0.14191199999999998</v>
       </c>
-      <c r="L111" s="2">
-        <f>AVERAGE(L108:L110)</f>
-        <v>0.37915510891252957</v>
+      <c r="L111" s="3">
+        <v>4.5317220540000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>